--- a/办公用品目录.xlsx
+++ b/办公用品目录.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hongseong\NaverCloud\총무\사무용품\사무용품\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADF31F5-5AD9-428C-9796-464AB925CF57}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76868D25-C4C9-4794-9A43-E6DCCBBBB25D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="16095" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="汇总（统一管理）" sheetId="5" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'汇总（统一管理）'!$A$1:$G$84</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'汇总（统一管理）'!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
 </workbook>
 </file>
@@ -1067,11 +1071,11 @@
   </si>
   <si>
     <t>招待用茶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CRG308</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1099,11 +1103,11 @@
       </rPr>
       <t>笔</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>5.411.891</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1120,7 +1124,7 @@
       </rPr>
       <t>一管理</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1181,7 +1185,7 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1220,19 +1224,19 @@
       </rPr>
       <t>（DONGA JET STICK 橙)</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>5.411.903</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3.540.197</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>橡皮筋(70mm)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1249,15 +1253,15 @@
       </rPr>
       <t>红色）</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2.438.905</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>洗手剂</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1274,35 +1278,35 @@
       </rPr>
       <t>量控制</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>书架</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4.644.171</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>书架（K06054)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>书架（K88125)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>7.378.821</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>WINDEX(660ML)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>JETSTREAM黑色笔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1330,7 +1334,7 @@
       </rPr>
       <t>笔</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1347,7 +1351,7 @@
       </rPr>
       <t>芯(B 0.5MM)</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1386,35 +1390,35 @@
       </rPr>
       <t>（5色1套）</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>胶带</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>347.508</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CB542A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>78781</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>STAEDTLER fineliner</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2.520.374</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>5.196.098</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1495,7 +1499,7 @@
       </rPr>
       <t>价</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1513,7 +1517,7 @@
       </rPr>
       <t>存量上限</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1525,9 +1529,17 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -1725,14 +1737,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1740,109 +1752,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="2" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2186,11 +2198,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64FBF4E-A183-4CCD-BF37-6BA31D7D5159}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3882,8 +3897,8 @@
       <c r="G84" s="35"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/办公用品目录.xlsx
+++ b/办公用品目录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hongseong\NaverCloud\총무\사무용품\사무용품\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76868D25-C4C9-4794-9A43-E6DCCBBBB25D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8DEC81-0A8E-4817-9148-1568FF4BF154}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="16095" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2204,8 +2204,8 @@
   <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>

--- a/办公用品目录.xlsx
+++ b/办公用品目录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hongseong\NaverCloud\총무\사무용품\사무용품\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA8DEC81-0A8E-4817-9148-1568FF4BF154}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255A10D8-886D-4493-A064-11849C39A62A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="16095" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,15 +16,15 @@
     <sheet name="汇总（统一管理）" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'汇总（统一管理）'!$A$1:$G$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'汇总（统一管理）'!$A$1:$G$85</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'汇总（统一管理）'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="165">
   <si>
     <t>美工刀</t>
   </si>
@@ -1516,6 +1516,44 @@
         <scheme val="minor"/>
       </rPr>
       <t>存量上限</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>卫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生用品</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.137.349 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>手消毒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>剂（Sanitizer) 500ml</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1748,7 +1786,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1856,6 +1894,18 @@
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2201,11 +2251,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H61" sqref="H61"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -2859,7 +2909,7 @@
       <c r="C32" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="16">
         <v>5589</v>
       </c>
@@ -2910,78 +2960,78 @@
       <c r="A35" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="15"/>
+      <c r="E35" s="16">
+        <v>12186</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C36" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20">
+      <c r="D36" s="19"/>
+      <c r="E36" s="20">
         <v>3035</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="G35" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" s="14">
-        <v>106.175</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="16">
-        <v>2439</v>
       </c>
       <c r="F36" s="15" t="s">
         <v>130</v>
       </c>
       <c r="G36" s="17">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="27" t="s">
-        <v>37</v>
+      <c r="B37" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="C37" s="14">
-        <v>304.738</v>
-      </c>
-      <c r="D37" s="15"/>
+        <v>106.175</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="E37" s="16">
-        <v>2871</v>
+        <v>2439</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G37" s="17"/>
+        <v>130</v>
+      </c>
+      <c r="G37" s="17">
+        <v>20</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>39</v>
+      <c r="B38" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="14">
+        <v>304.738</v>
       </c>
       <c r="D38" s="15"/>
       <c r="E38" s="16">
-        <v>3209</v>
+        <v>2871</v>
       </c>
       <c r="F38" s="15" t="s">
         <v>96</v>
@@ -2993,14 +3043,14 @@
         <v>112</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="16">
-        <v>3969</v>
+        <v>3209</v>
       </c>
       <c r="F39" s="15" t="s">
         <v>96</v>
@@ -3009,42 +3059,38 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D40" s="15"/>
       <c r="E40" s="16">
-        <v>2317</v>
+        <v>3969</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G40" s="17">
-        <v>20</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D41" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E41" s="16">
-        <v>3523</v>
+        <v>2317</v>
       </c>
       <c r="F41" s="15" t="s">
         <v>91</v>
@@ -3058,14 +3104,16 @@
         <v>42</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="15"/>
+        <v>45</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="E42" s="16">
-        <v>3445</v>
+        <v>3523</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>91</v>
@@ -3079,16 +3127,14 @@
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>48</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D43" s="15"/>
       <c r="E43" s="16">
-        <v>1579</v>
+        <v>3445</v>
       </c>
       <c r="F43" s="15" t="s">
         <v>91</v>
@@ -3099,23 +3145,25 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>50</v>
+        <v>117</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D44" s="15"/>
+        <v>47</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="E44" s="16">
-        <v>639</v>
+        <v>1579</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>91</v>
       </c>
       <c r="G44" s="17">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -3123,33 +3171,35 @@
         <v>49</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D45" s="15"/>
       <c r="E45" s="16">
-        <v>891</v>
+        <v>639</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G45" s="17"/>
+        <v>91</v>
+      </c>
+      <c r="G45" s="17">
+        <v>5</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="14">
-        <v>306.69900000000001</v>
+        <v>118</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="16">
-        <v>8978</v>
+        <v>891</v>
       </c>
       <c r="F46" s="15" t="s">
         <v>96</v>
@@ -3161,56 +3211,56 @@
         <v>49</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C47" s="14">
-        <v>306.90600000000001</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>53</v>
-      </c>
+        <v>306.69900000000001</v>
+      </c>
+      <c r="D47" s="15"/>
       <c r="E47" s="16">
-        <v>2069</v>
+        <v>8978</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G47" s="17">
-        <v>5</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G47" s="17"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="15"/>
+        <v>120</v>
+      </c>
+      <c r="C48" s="14">
+        <v>306.90600000000001</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="E48" s="16">
-        <v>2352</v>
+        <v>2069</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G48" s="17"/>
+        <v>91</v>
+      </c>
+      <c r="G48" s="17">
+        <v>5</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D49" s="15"/>
       <c r="E49" s="16">
-        <v>751</v>
+        <v>2352</v>
       </c>
       <c r="F49" s="15" t="s">
         <v>96</v>
@@ -3222,37 +3272,35 @@
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" s="14">
-        <v>103.517</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>122</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="15"/>
       <c r="E50" s="16">
-        <v>2544</v>
+        <v>751</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G50" s="17">
-        <v>5</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C51" s="14">
-        <v>336.90899999999999</v>
-      </c>
-      <c r="D51" s="15"/>
+        <v>103.517</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="E51" s="16">
-        <v>1056</v>
+        <v>2544</v>
       </c>
       <c r="F51" s="15" t="s">
         <v>91</v>
@@ -3266,22 +3314,20 @@
         <v>49</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>59</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="C52" s="14">
+        <v>336.90899999999999</v>
+      </c>
+      <c r="D52" s="15"/>
       <c r="E52" s="16">
-        <v>23600</v>
+        <v>1056</v>
       </c>
       <c r="F52" s="15" t="s">
         <v>91</v>
       </c>
       <c r="G52" s="17">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
@@ -3289,79 +3335,81 @@
         <v>49</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="14">
-        <v>497.63200000000001</v>
+        <v>57</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E53" s="16">
-        <v>30941</v>
+        <v>23600</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G53" s="17"/>
+        <v>91</v>
+      </c>
+      <c r="G53" s="17">
+        <v>100</v>
+      </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D54" s="15"/>
+        <v>124</v>
+      </c>
+      <c r="C54" s="14">
+        <v>497.63200000000001</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="E54" s="16">
-        <v>1210</v>
+        <v>30941</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G54" s="17">
-        <v>5</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G54" s="17"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>64</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D55" s="15"/>
       <c r="E55" s="16">
-        <v>21150</v>
+        <v>1210</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G55" s="17"/>
+        <v>91</v>
+      </c>
+      <c r="G55" s="17">
+        <v>5</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>64</v>
       </c>
       <c r="E56" s="16">
-        <v>4097</v>
+        <v>21150</v>
       </c>
       <c r="F56" s="15" t="s">
         <v>96</v>
@@ -3372,15 +3420,17 @@
       <c r="A57" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="20">
-        <v>996</v>
+      <c r="B57" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="16">
+        <v>4097</v>
       </c>
       <c r="F57" s="15" t="s">
         <v>96</v>
@@ -3392,14 +3442,14 @@
         <v>49</v>
       </c>
       <c r="B58" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D58" s="19"/>
       <c r="E58" s="20">
-        <v>5433</v>
+        <v>996</v>
       </c>
       <c r="F58" s="15" t="s">
         <v>96</v>
@@ -3407,18 +3457,18 @@
       <c r="G58" s="17"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>142</v>
+      <c r="A59" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>136</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D59" s="19"/>
       <c r="E59" s="20">
-        <v>8235</v>
+        <v>5433</v>
       </c>
       <c r="F59" s="15" t="s">
         <v>96</v>
@@ -3430,33 +3480,33 @@
         <v>140</v>
       </c>
       <c r="B60" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C60" s="18">
-        <v>278.24700000000001</v>
+        <v>142</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="D60" s="19"/>
       <c r="E60" s="20">
+        <v>8235</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G60" s="17"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="18">
+        <v>278.24700000000001</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="20">
         <v>3790</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G60" s="17"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="D61" s="15"/>
-      <c r="E61" s="16">
-        <v>75600</v>
       </c>
       <c r="F61" s="15" t="s">
         <v>96</v>
@@ -3468,14 +3518,14 @@
         <v>67</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="14">
-        <v>78782</v>
+        <v>152</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="D62" s="15"/>
       <c r="E62" s="16">
-        <v>74900</v>
+        <v>75600</v>
       </c>
       <c r="F62" s="15" t="s">
         <v>96</v>
@@ -3487,14 +3537,14 @@
         <v>67</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C63" s="14">
-        <v>78780</v>
+        <v>78782</v>
       </c>
       <c r="D63" s="15"/>
       <c r="E63" s="16">
-        <v>75600</v>
+        <v>74900</v>
       </c>
       <c r="F63" s="15" t="s">
         <v>96</v>
@@ -3506,14 +3556,14 @@
         <v>67</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C64" s="14">
-        <v>78779</v>
+        <v>78780</v>
       </c>
       <c r="D64" s="15"/>
       <c r="E64" s="16">
-        <v>82200</v>
+        <v>75600</v>
       </c>
       <c r="F64" s="15" t="s">
         <v>96</v>
@@ -3525,14 +3575,14 @@
         <v>67</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C65" s="14">
-        <v>168739</v>
+        <v>78779</v>
       </c>
       <c r="D65" s="15"/>
       <c r="E65" s="16">
-        <v>63580</v>
+        <v>82200</v>
       </c>
       <c r="F65" s="15" t="s">
         <v>96</v>
@@ -3544,14 +3594,14 @@
         <v>67</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C66" s="14">
-        <v>313287</v>
+        <v>168739</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="16">
-        <v>76450</v>
+        <v>63580</v>
       </c>
       <c r="F66" s="15" t="s">
         <v>96</v>
@@ -3563,14 +3613,14 @@
         <v>67</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C67" s="14">
-        <v>360804</v>
+        <v>313287</v>
       </c>
       <c r="D67" s="15"/>
       <c r="E67" s="16">
-        <v>112000</v>
+        <v>76450</v>
       </c>
       <c r="F67" s="15" t="s">
         <v>96</v>
@@ -3582,14 +3632,14 @@
         <v>67</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="C68" s="14">
-        <v>44766</v>
+        <v>360804</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="16">
-        <v>70500</v>
+        <v>112000</v>
       </c>
       <c r="F68" s="15" t="s">
         <v>96</v>
@@ -3601,14 +3651,14 @@
         <v>67</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="C69" s="14">
-        <v>32775</v>
+        <v>44766</v>
       </c>
       <c r="D69" s="15"/>
       <c r="E69" s="16">
-        <v>62810</v>
+        <v>70500</v>
       </c>
       <c r="F69" s="15" t="s">
         <v>96</v>
@@ -3620,14 +3670,14 @@
         <v>67</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C70" s="14">
-        <v>418806</v>
+        <v>32775</v>
       </c>
       <c r="D70" s="15"/>
       <c r="E70" s="16">
-        <v>83000</v>
+        <v>62810</v>
       </c>
       <c r="F70" s="15" t="s">
         <v>96</v>
@@ -3639,14 +3689,14 @@
         <v>67</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71" s="14">
-        <v>224529</v>
+        <v>418806</v>
       </c>
       <c r="D71" s="15"/>
       <c r="E71" s="16">
-        <v>106000</v>
+        <v>83000</v>
       </c>
       <c r="F71" s="15" t="s">
         <v>96</v>
@@ -3658,14 +3708,14 @@
         <v>67</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" s="14">
-        <v>113865</v>
+        <v>224529</v>
       </c>
       <c r="D72" s="15"/>
       <c r="E72" s="16">
-        <v>89000</v>
+        <v>106000</v>
       </c>
       <c r="F72" s="15" t="s">
         <v>96</v>
@@ -3677,14 +3727,14 @@
         <v>67</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C73" s="14">
-        <v>307891</v>
+        <v>113865</v>
       </c>
       <c r="D73" s="15"/>
       <c r="E73" s="16">
-        <v>120300</v>
+        <v>89000</v>
       </c>
       <c r="F73" s="15" t="s">
         <v>96</v>
@@ -3696,14 +3746,14 @@
         <v>67</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C74" s="14">
-        <v>307892</v>
+        <v>307891</v>
       </c>
       <c r="D74" s="15"/>
       <c r="E74" s="16">
-        <v>120800</v>
+        <v>120300</v>
       </c>
       <c r="F74" s="15" t="s">
         <v>96</v>
@@ -3715,10 +3765,10 @@
         <v>67</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C75" s="14">
-        <v>307890</v>
+        <v>307892</v>
       </c>
       <c r="D75" s="15"/>
       <c r="E75" s="16">
@@ -3734,14 +3784,14 @@
         <v>67</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C76" s="14">
-        <v>307887</v>
+        <v>307890</v>
       </c>
       <c r="D76" s="15"/>
       <c r="E76" s="16">
-        <v>91000</v>
+        <v>120800</v>
       </c>
       <c r="F76" s="15" t="s">
         <v>96</v>
@@ -3753,50 +3803,50 @@
         <v>67</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C77" s="14">
-        <v>168739</v>
+        <v>307887</v>
       </c>
       <c r="D77" s="15"/>
       <c r="E77" s="16">
+        <v>91000</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G77" s="17"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78" s="14">
+        <v>168739</v>
+      </c>
+      <c r="D78" s="15"/>
+      <c r="E78" s="16">
         <v>63580</v>
       </c>
-      <c r="F77" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G77" s="17"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="22" t="s">
+      <c r="F78" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G78" s="17"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B78" s="23" t="s">
+      <c r="B79" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="G78" s="17"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C79" s="14">
-        <v>261098</v>
-      </c>
-      <c r="D79" s="15"/>
-      <c r="E79" s="16">
-        <v>111600</v>
-      </c>
-      <c r="F79" s="15" t="s">
+      <c r="C79" s="24"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="25" t="s">
         <v>96</v>
       </c>
       <c r="G79" s="17"/>
@@ -3806,14 +3856,14 @@
         <v>67</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C80" s="14">
-        <v>225059</v>
+        <v>261098</v>
       </c>
       <c r="D80" s="15"/>
       <c r="E80" s="16">
-        <v>106000</v>
+        <v>111600</v>
       </c>
       <c r="F80" s="15" t="s">
         <v>96</v>
@@ -3825,10 +3875,10 @@
         <v>67</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C81" s="14">
-        <v>225058</v>
+        <v>225059</v>
       </c>
       <c r="D81" s="15"/>
       <c r="E81" s="16">
@@ -3844,10 +3894,10 @@
         <v>67</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C82" s="14">
-        <v>225057</v>
+        <v>225058</v>
       </c>
       <c r="D82" s="15"/>
       <c r="E82" s="16">
@@ -3863,38 +3913,57 @@
         <v>67</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C83" s="14">
-        <v>228538</v>
+        <v>225057</v>
       </c>
       <c r="D83" s="15"/>
       <c r="E83" s="16">
+        <v>106000</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G83" s="17"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84" s="14">
+        <v>228538</v>
+      </c>
+      <c r="D84" s="15"/>
+      <c r="E84" s="16">
         <v>96700</v>
       </c>
-      <c r="F83" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="G83" s="17"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="30" t="s">
+      <c r="F84" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G84" s="17"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B84" s="31" t="s">
+      <c r="B85" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C84" s="32">
+      <c r="C85" s="32">
         <v>282354</v>
       </c>
-      <c r="D84" s="33"/>
-      <c r="E84" s="34">
+      <c r="D85" s="33"/>
+      <c r="E85" s="34">
         <v>66000</v>
       </c>
-      <c r="F84" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="G84" s="35"/>
+      <c r="F85" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G85" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
